--- a/data-raw/desc_setor_governo.xlsx
+++ b/data-raw/desc_setor_governo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babii\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B5EAB72-4DBD-43BC-922F-E9AAAECFF209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1B5EAB72-4DBD-43BC-922F-E9AAAECFF209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F84B3B3-422A-4D89-9765-F662FD13FC43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6F4E0EE7-B78D-4F12-AA28-B3858C42219D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="148">
   <si>
     <t>Cód. UO Ação</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>SECRETARIA DE ESTADO DE INFRAESTRUTURA, MOBILIDADE E PARCERIAS</t>
+  </si>
+  <si>
+    <t>INFRAESTRUTURA, MOBILIDADE E PARCERIAS</t>
   </si>
   <si>
     <t>DEPARTAMENTO DE EDIFICAÇÕES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
@@ -852,14 +855,14 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2606,7 +2609,7 @@
         <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D103">
         <v>1300</v>
@@ -2620,10 +2623,10 @@
         <v>2301</v>
       </c>
       <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
         <v>131</v>
-      </c>
-      <c r="C104" t="s">
-        <v>130</v>
       </c>
       <c r="D104">
         <v>1300</v>
@@ -2637,10 +2640,10 @@
         <v>2431</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D105">
         <v>1300</v>
@@ -2654,10 +2657,10 @@
         <v>2461</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D106">
         <v>1300</v>
@@ -2671,10 +2674,10 @@
         <v>4331</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D107">
         <v>1300</v>
@@ -2688,10 +2691,10 @@
         <v>4381</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D108">
         <v>1300</v>
@@ -2705,10 +2708,10 @@
         <v>4631</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D109">
         <v>1300</v>
@@ -2722,10 +2725,10 @@
         <v>4641</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D110">
         <v>1300</v>
@@ -2739,10 +2742,10 @@
         <v>5261</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D111">
         <v>1300</v>
@@ -2756,16 +2759,16 @@
         <v>1021</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D112">
         <v>1020</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2773,16 +2776,16 @@
         <v>4611</v>
       </c>
       <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" t="s">
         <v>141</v>
-      </c>
-      <c r="C113" t="s">
-        <v>140</v>
       </c>
       <c r="D113">
         <v>1020</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2790,16 +2793,16 @@
         <v>1031</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D114">
         <v>1030</v>
       </c>
       <c r="E114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2807,16 +2810,16 @@
         <v>4031</v>
       </c>
       <c r="B115" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" t="s">
         <v>144</v>
-      </c>
-      <c r="C115" t="s">
-        <v>143</v>
       </c>
       <c r="D115">
         <v>1030</v>
       </c>
       <c r="E115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2824,16 +2827,16 @@
         <v>1051</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D116">
         <v>1050</v>
       </c>
       <c r="E116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2845,6 +2848,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
@@ -2855,18 +2867,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -2891,6 +2894,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2970,6 +2974,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3114,13 +3123,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50C5F39-ECEB-47DE-9610-74B8B293C0D0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC85FD73-D9CF-450C-8F57-71B83A4AFF06}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50C5F39-ECEB-47DE-9610-74B8B293C0D0}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54BFA0-05F5-4D5A-8FB0-86D79019B0D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FF11A5-B49F-4966-863E-83AB15101F28}"/>
 </file>
--- a/data-raw/desc_setor_governo.xlsx
+++ b/data-raw/desc_setor_governo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babii\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Desktop\00 DEMONSTRATIVO LOA FUNCAO REGIONALIZADA\faltantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{1B5EAB72-4DBD-43BC-922F-E9AAAECFF209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F84B3B3-422A-4D89-9765-F662FD13FC43}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{75AB832E-A2EB-476D-91B4-FB8A2A6CC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DBF31A-2D84-4F2D-BD0C-2E3F212D10B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6F4E0EE7-B78D-4F12-AA28-B3858C42219D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F4E0EE7-B78D-4F12-AA28-B3858C42219D}"/>
   </bookViews>
   <sheets>
     <sheet name="Setor_UO_Órgão" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <t>COMPANHIA ENERGÉTICA DE MINAS GERAIS</t>
   </si>
   <si>
-    <t>INSTITUTO DE DESENVOLVIMENTO INTEGRADO DE MINAS GERAIS</t>
+    <t>AGÊNCIA DE PROMOÇÃO DE INVESTIMENTOS DE MINAS GERAIS</t>
   </si>
   <si>
     <t>MINAS GERAIS PARTICIPAÇÕES S.A</t>
@@ -437,7 +437,7 @@
     <t>INFRAESTRUTURA, MOBILIDADE E PARCERIAS</t>
   </si>
   <si>
-    <t>DEPARTAMENTO DE EDIFICAÇÕES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
+    <t>DEPARTAMENTO ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS</t>
   </si>
   <si>
     <t>AGÊNCIA DE DESENVOLVIMENTO DA REGIÃO METROPOLITANA DE BELO HORIZONTE</t>
@@ -489,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,13 +497,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -518,8 +530,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +557,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05480680-7D31-4FBB-9ECC-80AC97F1E8F9}" name="Tabela2" displayName="Tabela2" ref="A1:E116" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E116" xr:uid="{D16AF538-209B-4C05-9371-23CD9B996B07}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C9F8A15-620C-4E04-BA0F-D72D42C518C7}" name="Cód. UO Ação"/>
     <tableColumn id="2" xr3:uid="{1D22C43A-3999-4677-9E4A-BA11D4791AD8}" name="UO Ação"/>
@@ -855,10 +868,10 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
@@ -1497,19 +1510,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>5131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1220</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1956,19 +1969,19 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>1917</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>1190</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2619,19 +2632,19 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>2301</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>1300</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2857,17 +2870,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
@@ -3122,14 +3124,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C50C5F39-ECEB-47DE-9610-74B8B293C0D0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC85FD73-D9CF-450C-8F57-71B83A4AFF06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FF11A5-B49F-4966-863E-83AB15101F28}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FF11A5-B49F-4966-863E-83AB15101F28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC85FD73-D9CF-450C-8F57-71B83A4AFF06}"/>
 </file>
--- a/data-raw/desc_setor_governo.xlsx
+++ b/data-raw/desc_setor_governo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Desktop\00 DEMONSTRATIVO LOA FUNCAO REGIONALIZADA\faltantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m753205\Desktop\99 TABELAS APOIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{75AB832E-A2EB-476D-91B4-FB8A2A6CC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DBF31A-2D84-4F2D-BD0C-2E3F212D10B0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6385FA1B6A429F422BFFA005376A97FD8D1DD83A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD1EACA6-A587-411B-AC5E-0FEA80B8F691}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F4E0EE7-B78D-4F12-AA28-B3858C42219D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setor_UO_Órgão" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setor_UO_Órgão!$A$1:$E$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Setor_UO_Órgão!$A$1:$E$120</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="152">
   <si>
     <t>Cód. UO Ação</t>
   </si>
@@ -483,6 +483,18 @@
   </si>
   <si>
     <t>TRIBUNAL DE JUSTIÇA MILITAR</t>
+  </si>
+  <si>
+    <t>FUNDO DE DESENVOLVIMENTO DO MINISTÉRIO PÚBLICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDO ESPECIAL DA ADVOCACIA GERAL DO ESTADO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDO ESPECIAL DE GARANTIA DE ACESSO À JUSTIÇA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGÊNCIA REGULADORA DE TRANSPORTES DO ESTADO DE MINAS GERAIS </t>
   </si>
 </sst>
 </file>
@@ -499,6 +511,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,14 +545,47 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -556,13 +602,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05480680-7D31-4FBB-9ECC-80AC97F1E8F9}" name="Tabela2" displayName="Tabela2" ref="A1:E116" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E120" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3C9F8A15-620C-4E04-BA0F-D72D42C518C7}" name="Cód. UO Ação"/>
-    <tableColumn id="2" xr3:uid="{1D22C43A-3999-4677-9E4A-BA11D4791AD8}" name="UO Ação"/>
-    <tableColumn id="3" xr3:uid="{A5DC91B0-0110-41E9-9787-A9ACD8C7A407}" name="Setor de Governo"/>
-    <tableColumn id="4" xr3:uid="{E79D9C37-69B7-415F-AE9C-C36FF22E5AE1}" name="Cód Órgão"/>
-    <tableColumn id="5" xr3:uid="{DC10139D-6647-4754-BBFE-45539DAA31E7}" name="Descrição Órgão"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Cód. UO Ação" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UO Ação" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Setor de Governo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cód Órgão" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descrição Órgão" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -864,1998 +910,2067 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4246FD-133A-4CE8-A445-7C33A613A58E}">
-  <dimension ref="A1:E116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1081</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1080</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1231</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1230</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2371</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1230</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3041</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1230</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3051</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1230</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4171</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1230</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1011</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1010</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2361</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1010</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>4121</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1010</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1721</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1720</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>1951</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1720</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>1711</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1710</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>2211</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1710</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>3151</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1710</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>1521</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1520</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>1401</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1400</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>1271</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1270</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>2171</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1270</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>2181</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1270</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>2201</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1270</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>4151</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>1270</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>4491</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1270</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>1441</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1440</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>1221</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1220</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>2041</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1220</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>2071</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>1220</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>2251</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1220</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>4111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1220</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>4531</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1220</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>4661</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>1220</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>4671</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1220</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>5011</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1220</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>5031</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1220</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>5071</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1220</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>5081</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1220</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>5121</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1220</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>5131</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>1220</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>5191</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1220</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>5201</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1220</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>5251</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1220</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>5381</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>1220</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>5391</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>1220</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>5401</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>1220</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>5511</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>1220</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>1481</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>1480</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>2281</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>1480</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>2421</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>1480</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>4091</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>1480</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>4101</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>1480</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>4251</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>1480</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>4421</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>1480</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>4601</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>1480</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>4701</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>1480</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>1261</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>1260</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>2151</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>1260</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>2161</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>1260</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>2311</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1260</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>2351</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>1260</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>1541</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>1540</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>1191</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>1190</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>1911</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>1190</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>1915</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>1190</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>1916</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>1190</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>1917</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>1190</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>4621</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>1190</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>4651</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>1190</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>4721</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>1190</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>1071</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>1070</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>1631</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>1630</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>1491</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>1490</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>1451</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>1450</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>4141</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>1450</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>4321</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>1450</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>4691</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>1450</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>1371</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>1370</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>2091</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>1370</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>2101</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>1370</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>2241</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>1370</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>2441</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>1370</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>4341</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>1370</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>1091</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>1090</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>4441</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>1090</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>4451</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>1090</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>1101</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>1100</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>1501</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>1500</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>1941</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>1500</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>2011</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>1500</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>2061</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>1500</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>2331</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>1500</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>4551</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>1500</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>4711</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>1500</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>5141</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>1500</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>1511</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>1510</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>1251</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>1250</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>2121</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>1250</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>4541</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>1250</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>1991</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>1990</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>2261</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>1320</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>2271</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>1320</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>2321</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>1320</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>4291</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>1320</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>1301</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>1300</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>2301</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>1300</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>2431</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>1300</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>2461</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>1300</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>4331</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>1300</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>4381</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>1300</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>4631</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>1300</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>4641</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>1300</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>5261</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>1300</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>1021</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>1020</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>4611</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>1020</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>1031</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>1030</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>4031</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>1030</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>1051</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>1050</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>4731</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1090</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>4751</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1080</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>4741</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>2471</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2870,8 +2985,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -2897,6 +3012,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2979,6 +3095,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -3140,7 +3261,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25FF11A5-B49F-4966-863E-83AB15101F28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48B74F0-D33D-4C24-AAF4-B54BE484D58D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
